--- a/biology/Histoire de la zoologie et de la botanique/Victor_Brooke/Victor_Brooke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Victor_Brooke/Victor_Brooke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Brooke, troisième baronnet, est un naturaliste britannique, né le 5 janvier 1843 et mort le 27 novembre 1891 d'une pneumonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chasseur passionné, en particulier pour le gros gibier, il s’intéresse pour cette raison à l’histoire naturelle. Il voyage beaucoup et ruine peu à peu la fortune familiale.
 Philip Lutley Sclater (1829-1913) et Michael Rogers Oldfield Thomas (1858-1929) font paraître de 1894 à 1900, les quatre volumes de The Book of Antelopes. Les planches avaient été réalisées pour le compte de Victor Brooke, mais sa mort prématurée, des suites d'un accident de chasse, avait arrêté ce projet.
